--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.80433395182037</v>
+        <v>0.476486</v>
       </c>
       <c r="N2">
-        <v>1.80433395182037</v>
+        <v>1.429458</v>
       </c>
       <c r="O2">
-        <v>0.6719610458615839</v>
+        <v>0.1483751124393585</v>
       </c>
       <c r="P2">
-        <v>0.6719610458615839</v>
+        <v>0.1483751124393586</v>
       </c>
       <c r="Q2">
-        <v>2.906889052951714</v>
+        <v>1.000090747568</v>
       </c>
       <c r="R2">
-        <v>2.906889052951714</v>
+        <v>9.000816728112001</v>
       </c>
       <c r="S2">
-        <v>0.05819826277319694</v>
+        <v>0.01606091833435275</v>
       </c>
       <c r="T2">
-        <v>0.05819826277319694</v>
+        <v>0.01606091833435274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8808424626946491</v>
+        <v>1.853664666666667</v>
       </c>
       <c r="N3">
-        <v>0.8808424626946491</v>
+        <v>5.560994</v>
       </c>
       <c r="O3">
-        <v>0.3280389541384162</v>
+        <v>0.5772209536933566</v>
       </c>
       <c r="P3">
-        <v>0.3280389541384162</v>
+        <v>0.5772209536933566</v>
       </c>
       <c r="Q3">
-        <v>1.419089470438017</v>
+        <v>3.890634524890667</v>
       </c>
       <c r="R3">
-        <v>1.419089470438017</v>
+        <v>35.015710724016</v>
       </c>
       <c r="S3">
-        <v>0.0284113154629574</v>
+        <v>0.06248149332951763</v>
       </c>
       <c r="T3">
-        <v>0.0284113154629574</v>
+        <v>0.06248149332951761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.6125894745187</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>15.6125894745187</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.8393233953921122</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.8393233953921122</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80433395182037</v>
+        <v>0.8812099999999999</v>
       </c>
       <c r="N4">
-        <v>1.80433395182037</v>
+        <v>2.64363</v>
       </c>
       <c r="O4">
-        <v>0.6719610458615839</v>
+        <v>0.2744039338672849</v>
       </c>
       <c r="P4">
-        <v>0.6719610458615839</v>
+        <v>0.2744039338672849</v>
       </c>
       <c r="Q4">
-        <v>28.17032526470744</v>
+        <v>1.84956109448</v>
       </c>
       <c r="R4">
-        <v>28.17032526470744</v>
+        <v>16.64604985032</v>
       </c>
       <c r="S4">
-        <v>0.5639926265837795</v>
+        <v>0.0297029542219813</v>
       </c>
       <c r="T4">
-        <v>0.5639926265837795</v>
+        <v>0.02970295422198129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8808424626946491</v>
+        <v>0.476486</v>
       </c>
       <c r="N5">
-        <v>0.8808424626946491</v>
+        <v>1.429458</v>
       </c>
       <c r="O5">
-        <v>0.3280389541384162</v>
+        <v>0.1483751124393585</v>
       </c>
       <c r="P5">
-        <v>0.3280389541384162</v>
+        <v>0.1483751124393586</v>
       </c>
       <c r="Q5">
-        <v>13.75223176177561</v>
+        <v>7.564283705155334</v>
       </c>
       <c r="R5">
-        <v>13.75223176177561</v>
+        <v>68.07855334639801</v>
       </c>
       <c r="S5">
-        <v>0.2753307688083328</v>
+        <v>0.1214783189843624</v>
       </c>
       <c r="T5">
-        <v>0.2753307688083328</v>
+        <v>0.1214783189843625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3777503197084</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>1.3777503197084</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.0740670263717333</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.0740670263717333</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80433395182037</v>
+        <v>1.853664666666667</v>
       </c>
       <c r="N6">
-        <v>1.80433395182037</v>
+        <v>5.560994</v>
       </c>
       <c r="O6">
-        <v>0.6719610458615839</v>
+        <v>0.5772209536933566</v>
       </c>
       <c r="P6">
-        <v>0.6719610458615839</v>
+        <v>0.5772209536933566</v>
       </c>
       <c r="Q6">
-        <v>2.485921678981236</v>
+        <v>29.42719289315711</v>
       </c>
       <c r="R6">
-        <v>2.485921678981236</v>
+        <v>264.844736038414</v>
       </c>
       <c r="S6">
-        <v>0.04977015650460743</v>
+        <v>0.4725848559398916</v>
       </c>
       <c r="T6">
-        <v>0.04977015650460743</v>
+        <v>0.4725848559398916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3777503197084</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>1.3777503197084</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.0740670263717333</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.0740670263717333</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8808424626946491</v>
+        <v>0.8812099999999999</v>
       </c>
       <c r="N7">
-        <v>0.8808424626946491</v>
+        <v>2.64363</v>
       </c>
       <c r="O7">
-        <v>0.3280389541384162</v>
+        <v>0.2744039338672849</v>
       </c>
       <c r="P7">
-        <v>0.3280389541384162</v>
+        <v>0.2744039338672849</v>
       </c>
       <c r="Q7">
-        <v>1.213580984590287</v>
+        <v>13.98933535050333</v>
       </c>
       <c r="R7">
-        <v>1.213580984590287</v>
+        <v>125.90401815453</v>
       </c>
       <c r="S7">
-        <v>0.02429686986712588</v>
+        <v>0.2246611851601307</v>
       </c>
       <c r="T7">
-        <v>0.02429686986712588</v>
+        <v>0.2246611851601306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.416064</v>
+      </c>
+      <c r="H8">
+        <v>4.248192</v>
+      </c>
+      <c r="I8">
+        <v>0.07303027402976368</v>
+      </c>
+      <c r="J8">
+        <v>0.07303027402976367</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.476486</v>
+      </c>
+      <c r="N8">
+        <v>1.429458</v>
+      </c>
+      <c r="O8">
+        <v>0.1483751124393585</v>
+      </c>
+      <c r="P8">
+        <v>0.1483751124393586</v>
+      </c>
+      <c r="Q8">
+        <v>0.6747346711039999</v>
+      </c>
+      <c r="R8">
+        <v>6.072612039936</v>
+      </c>
+      <c r="S8">
+        <v>0.01083587512064335</v>
+      </c>
+      <c r="T8">
+        <v>0.01083587512064335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.416064</v>
+      </c>
+      <c r="H9">
+        <v>4.248192</v>
+      </c>
+      <c r="I9">
+        <v>0.07303027402976368</v>
+      </c>
+      <c r="J9">
+        <v>0.07303027402976367</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.853664666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.560994</v>
+      </c>
+      <c r="O9">
+        <v>0.5772209536933566</v>
+      </c>
+      <c r="P9">
+        <v>0.5772209536933566</v>
+      </c>
+      <c r="Q9">
+        <v>2.624907802538667</v>
+      </c>
+      <c r="R9">
+        <v>23.624170222848</v>
+      </c>
+      <c r="S9">
+        <v>0.04215460442394736</v>
+      </c>
+      <c r="T9">
+        <v>0.04215460442394735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.416064</v>
+      </c>
+      <c r="H10">
+        <v>4.248192</v>
+      </c>
+      <c r="I10">
+        <v>0.07303027402976368</v>
+      </c>
+      <c r="J10">
+        <v>0.07303027402976367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8812099999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.64363</v>
+      </c>
+      <c r="O10">
+        <v>0.2744039338672849</v>
+      </c>
+      <c r="P10">
+        <v>0.2744039338672849</v>
+      </c>
+      <c r="Q10">
+        <v>1.24784975744</v>
+      </c>
+      <c r="R10">
+        <v>11.23064781696</v>
+      </c>
+      <c r="S10">
+        <v>0.02003979448517297</v>
+      </c>
+      <c r="T10">
+        <v>0.02003979448517296</v>
       </c>
     </row>
   </sheetData>
